--- a/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1944,6 +1944,27 @@
   </si>
   <si>
     <t>BigCup(南京仙林财经大学店)</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>一芳(重庆龙湖时代天街)</t>
+  </si>
+  <si>
+    <t>刘梦莹</t>
+  </si>
+  <si>
+    <t>一芳(金华万达金街店)</t>
+  </si>
+  <si>
+    <t>黄光立</t>
+  </si>
+  <si>
+    <t>一芳(武汉大洋百货店)</t>
+  </si>
+  <si>
+    <t>蔡芳</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
@@ -1984,11 +2005,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2067,6 +2088,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2095,11 +2121,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -2156,6 +2177,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2180,13 +2207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2202,14 +2222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2222,10 +2235,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2286,150 +2307,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2448,7 +2325,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,10 +2943,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2934,19 +2955,19 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,31 +2976,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2988,95 +3009,95 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3250,6 +3271,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3758,440 +3785,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="99" t="s">
+      <c r="N2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="64"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74">
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102" t="e">
+      <c r="J3" s="103"/>
+      <c r="K3" s="104" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="105">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="104">
+      <c r="M3" s="106">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="105" t="e">
+      <c r="N3" s="107" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80">
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="81">
+      <c r="G4" s="83"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="102" t="e">
+      <c r="J4" s="108"/>
+      <c r="K4" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="104">
+      <c r="M4" s="106">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="105" t="e">
+      <c r="N4" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80">
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="81">
+      <c r="G5" s="83"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="102" t="e">
+      <c r="J5" s="108"/>
+      <c r="K5" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="104">
+      <c r="M5" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="105" t="e">
+      <c r="N5" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80">
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="81">
+      <c r="G6" s="83"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="102" t="e">
+      <c r="J6" s="108"/>
+      <c r="K6" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="105" t="e">
+      <c r="N6" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="81">
+      <c r="G7" s="83"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="102" t="e">
+      <c r="J7" s="108"/>
+      <c r="K7" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="105" t="e">
+      <c r="N7" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80">
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="81">
+      <c r="G8" s="83"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="102" t="e">
+      <c r="J8" s="108"/>
+      <c r="K8" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="105" t="e">
+      <c r="N8" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80">
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="81">
+      <c r="G9" s="83"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="102" t="e">
+      <c r="J9" s="108"/>
+      <c r="K9" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="105" t="e">
+      <c r="N9" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="82" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85">
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86">
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108" t="e">
+      <c r="J10" s="109"/>
+      <c r="K10" s="110" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="112">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="111" t="e">
+      <c r="N10" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="93">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="93">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="112" t="e">
+      <c r="K11" s="114" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="92">
+      <c r="M11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="113" t="e">
+      <c r="N11" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4209,10 +4236,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
+      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8486,7 +8513,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="114" t="s">
+      <c r="O95" s="116" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -16313,22 +16340,154 @@
       </c>
     </row>
     <row r="262" spans="1:16">
-      <c r="A262" s="22"/>
-      <c r="B262" s="21"/>
-      <c r="O262" s="12"/>
-      <c r="P262" s="8"/>
+      <c r="A262" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C262" s="18">
+        <v>43095</v>
+      </c>
+      <c r="D262" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G262" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="H262" s="60">
+        <v>76113672</v>
+      </c>
+      <c r="I262" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="J262" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K262" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L262" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M262" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="N262" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O262" s="60">
+        <v>18523502323</v>
+      </c>
+      <c r="P262" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="263" spans="1:16">
-      <c r="A263" s="22"/>
-      <c r="B263" s="21"/>
-      <c r="O263" s="12"/>
-      <c r="P263" s="8"/>
+      <c r="A263" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C263" s="18">
+        <v>43095</v>
+      </c>
+      <c r="D263" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G263" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H263" s="60">
+        <v>76116101</v>
+      </c>
+      <c r="I263" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="J263" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K263" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L263" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M263" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="N263" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O263" s="60">
+        <v>18657929290</v>
+      </c>
+      <c r="P263" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="264" spans="1:16">
-      <c r="A264" s="22"/>
-      <c r="B264" s="21"/>
-      <c r="O264" s="12"/>
-      <c r="P264" s="8"/>
+      <c r="A264" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C264" s="18">
+        <v>43095</v>
+      </c>
+      <c r="D264" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G264" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H264" s="60">
+        <v>76116102</v>
+      </c>
+      <c r="I264" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="J264" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K264" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L264" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M264" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="N264" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O264" s="60">
+        <v>13036101739</v>
+      </c>
+      <c r="P264" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="265" spans="1:16">
       <c r="A265" s="22"/>
@@ -16388,7 +16547,7 @@
       <c r="A274" s="22"/>
       <c r="B274" s="21"/>
       <c r="H274" s="8" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="O274" s="12"/>
       <c r="P274" s="8"/>
@@ -17040,7 +17199,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="60"/>
+      <c r="A414" s="62"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -17112,7 +17271,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="60"/>
+      <c r="A432" s="62"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -17120,7 +17279,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="60"/>
+      <c r="A434" s="62"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -17128,7 +17287,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="60"/>
+      <c r="A436" s="62"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -17136,7 +17295,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="60"/>
+      <c r="A438" s="62"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -17144,7 +17303,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="60"/>
+      <c r="A440" s="62"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -17152,7 +17311,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="60"/>
+      <c r="A442" s="62"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -17160,7 +17319,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="60"/>
+      <c r="A444" s="62"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -17168,7 +17327,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="60"/>
+      <c r="A446" s="62"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -17176,7 +17335,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="60"/>
+      <c r="A448" s="62"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -17184,7 +17343,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="60"/>
+      <c r="A450" s="62"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -17192,7 +17351,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="60"/>
+      <c r="A452" s="62"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -17200,7 +17359,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="60"/>
+      <c r="A454" s="62"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -17208,7 +17367,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="60"/>
+      <c r="A456" s="62"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -17216,7 +17375,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="60"/>
+      <c r="A458" s="62"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -17224,7 +17383,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="60"/>
+      <c r="A460" s="62"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -17232,7 +17391,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="60"/>
+      <c r="A462" s="62"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -17240,7 +17399,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="60"/>
+      <c r="A464" s="62"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -17248,7 +17407,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="60"/>
+      <c r="A466" s="62"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17256,7 +17415,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="60"/>
+      <c r="A468" s="62"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17264,7 +17423,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="60"/>
+      <c r="A470" s="62"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17272,7 +17431,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="60"/>
+      <c r="A472" s="62"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17280,7 +17439,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="60"/>
+      <c r="A474" s="62"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17288,7 +17447,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="60"/>
+      <c r="A476" s="62"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17296,7 +17455,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="60"/>
+      <c r="A478" s="62"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17304,7 +17463,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="60"/>
+      <c r="A480" s="62"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17312,7 +17471,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="60"/>
+      <c r="A482" s="62"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17320,7 +17479,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="60"/>
+      <c r="A484" s="62"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17328,7 +17487,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="60"/>
+      <c r="A486" s="62"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17336,7 +17495,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="60"/>
+      <c r="A488" s="62"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17344,7 +17503,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="60"/>
+      <c r="A490" s="62"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17352,7 +17511,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="60"/>
+      <c r="A492" s="62"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17360,7 +17519,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="60"/>
+      <c r="A494" s="62"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17368,7 +17527,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="60"/>
+      <c r="A496" s="62"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17376,7 +17535,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="60"/>
+      <c r="A498" s="62"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17384,7 +17543,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="60"/>
+      <c r="A500" s="62"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17392,7 +17551,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="60"/>
+      <c r="A502" s="62"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17400,7 +17559,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="60"/>
+      <c r="A504" s="62"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17408,7 +17567,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="60"/>
+      <c r="A506" s="62"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17416,7 +17575,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="60"/>
+      <c r="A508" s="62"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17424,7 +17583,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="60"/>
+      <c r="A510" s="62"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17432,7 +17591,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="60"/>
+      <c r="A512" s="62"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17440,7 +17599,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="60"/>
+      <c r="A514" s="62"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17448,7 +17607,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="60"/>
+      <c r="A516" s="62"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17456,7 +17615,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="60"/>
+      <c r="A518" s="62"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17464,7 +17623,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="60"/>
+      <c r="A520" s="62"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17472,7 +17631,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="60"/>
+      <c r="A522" s="62"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17480,7 +17639,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="60"/>
+      <c r="A524" s="62"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17488,7 +17647,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="60"/>
+      <c r="A526" s="62"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17496,7 +17655,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="60"/>
+      <c r="A528" s="62"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17504,7 +17663,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="60"/>
+      <c r="A530" s="62"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17512,7 +17671,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="60"/>
+      <c r="A532" s="62"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17520,7 +17679,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="60"/>
+      <c r="A534" s="62"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17528,7 +17687,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="60"/>
+      <c r="A536" s="62"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17536,7 +17695,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="60"/>
+      <c r="A538" s="62"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17544,7 +17703,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="60"/>
+      <c r="A540" s="62"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17552,7 +17711,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="60"/>
+      <c r="A542" s="62"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17560,7 +17719,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="60"/>
+      <c r="A544" s="62"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17568,7 +17727,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="60"/>
+      <c r="A546" s="62"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17576,7 +17735,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="60"/>
+      <c r="A548" s="62"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17584,7 +17743,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="60"/>
+      <c r="A550" s="62"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17592,7 +17751,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="60"/>
+      <c r="A552" s="62"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17600,7 +17759,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="60"/>
+      <c r="A554" s="62"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17608,7 +17767,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="60"/>
+      <c r="A556" s="62"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17616,7 +17775,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="60"/>
+      <c r="A558" s="62"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17624,7 +17783,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="60"/>
+      <c r="A560" s="62"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17632,7 +17791,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="60"/>
+      <c r="A562" s="62"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17640,7 +17799,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="60"/>
+      <c r="A564" s="62"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17648,7 +17807,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="60"/>
+      <c r="A566" s="62"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17656,7 +17815,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="60"/>
+      <c r="A568" s="62"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17664,7 +17823,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="60"/>
+      <c r="A570" s="62"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17672,7 +17831,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="60"/>
+      <c r="A572" s="62"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17680,7 +17839,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="60"/>
+      <c r="A574" s="62"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17688,7 +17847,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="60"/>
+      <c r="A576" s="62"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17696,7 +17855,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="60"/>
+      <c r="A578" s="62"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17704,7 +17863,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="60"/>
+      <c r="A580" s="62"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17712,7 +17871,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="60"/>
+      <c r="A582" s="62"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17720,7 +17879,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="60"/>
+      <c r="A584" s="62"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17728,7 +17887,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="60"/>
+      <c r="A586" s="62"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17736,7 +17895,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="60"/>
+      <c r="A588" s="62"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17744,7 +17903,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="60"/>
+      <c r="A590" s="62"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17752,7 +17911,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="60"/>
+      <c r="A592" s="62"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17760,7 +17919,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="60"/>
+      <c r="A594" s="62"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17768,7 +17927,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="60"/>
+      <c r="A596" s="62"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17776,7 +17935,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="60"/>
+      <c r="A598" s="62"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17784,7 +17943,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="60"/>
+      <c r="A600" s="62"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17792,7 +17951,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="60"/>
+      <c r="A602" s="62"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17800,7 +17959,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="60"/>
+      <c r="A604" s="62"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17808,7 +17967,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="60"/>
+      <c r="A606" s="62"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17816,7 +17975,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="60"/>
+      <c r="A608" s="62"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17824,7 +17983,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="60"/>
+      <c r="A610" s="62"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17832,7 +17991,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="60"/>
+      <c r="A612" s="62"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17840,7 +17999,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="60"/>
+      <c r="A614" s="62"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -17848,7 +18007,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="60"/>
+      <c r="A616" s="62"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -17856,431 +18015,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="61"/>
+      <c r="A618" s="63"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="61"/>
+      <c r="A620" s="63"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="61"/>
+      <c r="A622" s="63"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="61"/>
+      <c r="A624" s="63"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="61"/>
+      <c r="A626" s="63"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="61"/>
+      <c r="A628" s="63"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="61"/>
+      <c r="A630" s="63"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="61"/>
+      <c r="A632" s="63"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="61"/>
+      <c r="A634" s="63"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="61"/>
+      <c r="A636" s="63"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="61"/>
+      <c r="A638" s="63"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="61"/>
+      <c r="A640" s="63"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="61"/>
+      <c r="A642" s="63"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="61"/>
+      <c r="A644" s="63"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="61"/>
+      <c r="A646" s="63"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="61"/>
+      <c r="A648" s="63"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="61"/>
+      <c r="A650" s="63"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="61"/>
+      <c r="A652" s="63"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="61"/>
+      <c r="A654" s="63"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="61"/>
+      <c r="A656" s="63"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="61"/>
+      <c r="A658" s="63"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="61"/>
+      <c r="A660" s="63"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="61"/>
+      <c r="A662" s="63"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="61"/>
+      <c r="A664" s="63"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="61"/>
+      <c r="A666" s="63"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="61"/>
+      <c r="A668" s="63"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="61"/>
+      <c r="A670" s="63"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="61"/>
+      <c r="A672" s="63"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="61"/>
+      <c r="A674" s="63"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="61"/>
+      <c r="A676" s="63"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="61"/>
+      <c r="A678" s="63"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="61"/>
+      <c r="A680" s="63"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="61"/>
+      <c r="A682" s="63"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="61"/>
+      <c r="A684" s="63"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="61"/>
+      <c r="A686" s="63"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="61"/>
+      <c r="A688" s="63"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="61"/>
+      <c r="A690" s="63"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="61"/>
+      <c r="A692" s="63"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="61"/>
+      <c r="A694" s="63"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="61"/>
+      <c r="A696" s="63"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="61"/>
+      <c r="A698" s="63"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="61"/>
+      <c r="A700" s="63"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="61"/>
+      <c r="A702" s="63"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="61"/>
+      <c r="A704" s="63"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="61"/>
+      <c r="A706" s="63"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="61"/>
+      <c r="A708" s="63"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="61"/>
+      <c r="A710" s="63"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="61"/>
+      <c r="A712" s="63"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="61"/>
+      <c r="A714" s="63"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="61"/>
+      <c r="A716" s="63"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="61"/>
+      <c r="A718" s="63"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="61"/>
+      <c r="A720" s="63"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="61"/>
+      <c r="A722" s="63"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="61"/>
+      <c r="A724" s="63"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="61"/>
+      <c r="A726" s="63"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="61"/>
+      <c r="A728" s="63"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="61"/>
+      <c r="A730" s="63"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="61"/>
+      <c r="A732" s="63"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="61"/>
+      <c r="A734" s="63"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="61"/>
+      <c r="A736" s="63"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="61"/>
+      <c r="A738" s="63"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="61"/>
+      <c r="A740" s="63"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="61"/>
+      <c r="A742" s="63"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="61"/>
+      <c r="A744" s="63"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="61"/>
+      <c r="A746" s="63"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="61"/>
+      <c r="A748" s="63"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="61"/>
+      <c r="A750" s="63"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="61"/>
+      <c r="A752" s="63"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="61"/>
+      <c r="A754" s="63"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="61"/>
+      <c r="A756" s="63"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C265:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D259:D261 D262:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D265:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18309,13 +18468,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -18326,7 +18485,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18337,7 +18496,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18348,7 +18507,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18364,7 +18523,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -18375,7 +18534,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18391,7 +18550,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18402,7 +18561,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18413,7 +18572,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1998,6 +1998,9 @@
   </si>
   <si>
     <t>捞王锅物料理(五角场万达店）开业驻店</t>
+  </si>
+  <si>
+    <t>香天下火锅石路店开业驻店</t>
   </si>
 </sst>
 </file>
@@ -2006,9 +2009,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
@@ -2088,36 +2091,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2139,14 +2122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -2156,52 +2131,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2228,11 +2157,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2307,25 +2310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,48 +2329,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,6 +2389,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2840,45 +2843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2890,26 +2854,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2937,16 +2881,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,94 +2958,94 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3054,42 +3057,42 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
@@ -3097,7 +3100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3271,12 +3274,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3785,440 +3782,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="66"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104" t="e">
+      <c r="J3" s="101"/>
+      <c r="K3" s="102" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="103">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="106">
+      <c r="M3" s="104">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="107" t="e">
+      <c r="N3" s="105" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82">
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="83">
+      <c r="G4" s="81"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="104" t="e">
+      <c r="J4" s="106"/>
+      <c r="K4" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="106">
+      <c r="M4" s="104">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="107" t="e">
+      <c r="N4" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82">
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="83">
+      <c r="G5" s="81"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="104" t="e">
+      <c r="J5" s="106"/>
+      <c r="K5" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="106">
+      <c r="M5" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="107" t="e">
+      <c r="N5" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82">
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="83">
+      <c r="G6" s="81"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="104" t="e">
+      <c r="J6" s="106"/>
+      <c r="K6" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="106">
+      <c r="M6" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="107" t="e">
+      <c r="N6" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="83">
+      <c r="G7" s="81"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="104" t="e">
+      <c r="J7" s="106"/>
+      <c r="K7" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="106">
+      <c r="M7" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="107" t="e">
+      <c r="N7" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82">
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="83">
+      <c r="G8" s="81"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="104" t="e">
+      <c r="J8" s="106"/>
+      <c r="K8" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="106">
+      <c r="M8" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="107" t="e">
+      <c r="N8" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82">
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="83">
+      <c r="G9" s="81"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="104" t="e">
+      <c r="J9" s="106"/>
+      <c r="K9" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="106">
+      <c r="M9" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="107" t="e">
+      <c r="N9" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="84" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88">
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110" t="e">
+      <c r="J10" s="107"/>
+      <c r="K10" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="112">
+      <c r="M10" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="113" t="e">
+      <c r="N10" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="91">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="91">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="114" t="e">
+      <c r="K11" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="94">
+      <c r="M11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="115" t="e">
+      <c r="N11" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4236,7 +4233,7 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
@@ -8513,7 +8510,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="116" t="s">
+      <c r="O95" s="114" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -16358,13 +16355,13 @@
       <c r="F262" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G262" s="60" t="s">
+      <c r="G262" s="42" t="s">
         <v>627</v>
       </c>
-      <c r="H262" s="60">
+      <c r="H262" s="42">
         <v>76113672</v>
       </c>
-      <c r="I262" s="60" t="s">
+      <c r="I262" s="42" t="s">
         <v>628</v>
       </c>
       <c r="J262" s="8" t="s">
@@ -16376,13 +16373,13 @@
       <c r="L262" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M262" s="60" t="s">
+      <c r="M262" s="42" t="s">
         <v>629</v>
       </c>
       <c r="N262" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O262" s="60">
+      <c r="O262" s="42">
         <v>18523502323</v>
       </c>
       <c r="P262" s="8" t="s">
@@ -16408,13 +16405,13 @@
       <c r="F263" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G263" s="60" t="s">
+      <c r="G263" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H263" s="60">
+      <c r="H263" s="42">
         <v>76116101</v>
       </c>
-      <c r="I263" s="61" t="s">
+      <c r="I263" s="49" t="s">
         <v>630</v>
       </c>
       <c r="J263" s="8" t="s">
@@ -16426,13 +16423,13 @@
       <c r="L263" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M263" s="60" t="s">
+      <c r="M263" s="42" t="s">
         <v>631</v>
       </c>
       <c r="N263" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O263" s="60">
+      <c r="O263" s="42">
         <v>18657929290</v>
       </c>
       <c r="P263" s="8" t="s">
@@ -16458,13 +16455,13 @@
       <c r="F264" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G264" s="60" t="s">
+      <c r="G264" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H264" s="60">
+      <c r="H264" s="42">
         <v>76116102</v>
       </c>
-      <c r="I264" s="61" t="s">
+      <c r="I264" s="49" t="s">
         <v>632</v>
       </c>
       <c r="J264" s="8" t="s">
@@ -16476,13 +16473,13 @@
       <c r="L264" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M264" s="60" t="s">
+      <c r="M264" s="42" t="s">
         <v>633</v>
       </c>
       <c r="N264" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O264" s="60">
+      <c r="O264" s="42">
         <v>13036101739</v>
       </c>
       <c r="P264" s="8" t="s">
@@ -17199,7 +17196,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="62"/>
+      <c r="A414" s="60"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -17271,7 +17268,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="62"/>
+      <c r="A432" s="60"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -17279,7 +17276,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="62"/>
+      <c r="A434" s="60"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -17287,7 +17284,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="62"/>
+      <c r="A436" s="60"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -17295,7 +17292,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="62"/>
+      <c r="A438" s="60"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -17303,7 +17300,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="62"/>
+      <c r="A440" s="60"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -17311,7 +17308,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="62"/>
+      <c r="A442" s="60"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -17319,7 +17316,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="62"/>
+      <c r="A444" s="60"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -17327,7 +17324,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="62"/>
+      <c r="A446" s="60"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -17335,7 +17332,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="62"/>
+      <c r="A448" s="60"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -17343,7 +17340,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="62"/>
+      <c r="A450" s="60"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -17351,7 +17348,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="62"/>
+      <c r="A452" s="60"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -17359,7 +17356,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="62"/>
+      <c r="A454" s="60"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -17367,7 +17364,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="62"/>
+      <c r="A456" s="60"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -17375,7 +17372,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="62"/>
+      <c r="A458" s="60"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -17383,7 +17380,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="62"/>
+      <c r="A460" s="60"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -17391,7 +17388,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="62"/>
+      <c r="A462" s="60"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -17399,7 +17396,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="62"/>
+      <c r="A464" s="60"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -17407,7 +17404,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="62"/>
+      <c r="A466" s="60"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17415,7 +17412,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="62"/>
+      <c r="A468" s="60"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17423,7 +17420,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="62"/>
+      <c r="A470" s="60"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17431,7 +17428,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="62"/>
+      <c r="A472" s="60"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17439,7 +17436,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="62"/>
+      <c r="A474" s="60"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17447,7 +17444,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="62"/>
+      <c r="A476" s="60"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17455,7 +17452,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="62"/>
+      <c r="A478" s="60"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17463,7 +17460,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="62"/>
+      <c r="A480" s="60"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17471,7 +17468,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="62"/>
+      <c r="A482" s="60"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17479,7 +17476,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="62"/>
+      <c r="A484" s="60"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17487,7 +17484,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="62"/>
+      <c r="A486" s="60"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17495,7 +17492,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="62"/>
+      <c r="A488" s="60"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17503,7 +17500,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="62"/>
+      <c r="A490" s="60"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17511,7 +17508,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="62"/>
+      <c r="A492" s="60"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17519,7 +17516,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="62"/>
+      <c r="A494" s="60"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17527,7 +17524,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="62"/>
+      <c r="A496" s="60"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17535,7 +17532,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="62"/>
+      <c r="A498" s="60"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17543,7 +17540,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="62"/>
+      <c r="A500" s="60"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17551,7 +17548,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="62"/>
+      <c r="A502" s="60"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17559,7 +17556,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="62"/>
+      <c r="A504" s="60"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17567,7 +17564,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="62"/>
+      <c r="A506" s="60"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17575,7 +17572,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="62"/>
+      <c r="A508" s="60"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17583,7 +17580,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="62"/>
+      <c r="A510" s="60"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17591,7 +17588,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="62"/>
+      <c r="A512" s="60"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17599,7 +17596,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="62"/>
+      <c r="A514" s="60"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17607,7 +17604,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="62"/>
+      <c r="A516" s="60"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17615,7 +17612,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="62"/>
+      <c r="A518" s="60"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17623,7 +17620,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="62"/>
+      <c r="A520" s="60"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17631,7 +17628,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="62"/>
+      <c r="A522" s="60"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17639,7 +17636,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="62"/>
+      <c r="A524" s="60"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17647,7 +17644,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="62"/>
+      <c r="A526" s="60"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17655,7 +17652,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="62"/>
+      <c r="A528" s="60"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17663,7 +17660,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="62"/>
+      <c r="A530" s="60"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17671,7 +17668,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="62"/>
+      <c r="A532" s="60"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17679,7 +17676,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="62"/>
+      <c r="A534" s="60"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17687,7 +17684,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="62"/>
+      <c r="A536" s="60"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17695,7 +17692,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="62"/>
+      <c r="A538" s="60"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17703,7 +17700,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="62"/>
+      <c r="A540" s="60"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17711,7 +17708,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="62"/>
+      <c r="A542" s="60"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17719,7 +17716,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="62"/>
+      <c r="A544" s="60"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17727,7 +17724,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="62"/>
+      <c r="A546" s="60"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17735,7 +17732,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="62"/>
+      <c r="A548" s="60"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17743,7 +17740,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="62"/>
+      <c r="A550" s="60"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17751,7 +17748,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="62"/>
+      <c r="A552" s="60"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17759,7 +17756,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="62"/>
+      <c r="A554" s="60"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17767,7 +17764,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="62"/>
+      <c r="A556" s="60"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17775,7 +17772,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="62"/>
+      <c r="A558" s="60"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17783,7 +17780,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="62"/>
+      <c r="A560" s="60"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17791,7 +17788,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="62"/>
+      <c r="A562" s="60"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17799,7 +17796,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="62"/>
+      <c r="A564" s="60"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17807,7 +17804,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="62"/>
+      <c r="A566" s="60"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17815,7 +17812,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="62"/>
+      <c r="A568" s="60"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17823,7 +17820,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="62"/>
+      <c r="A570" s="60"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17831,7 +17828,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="62"/>
+      <c r="A572" s="60"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17839,7 +17836,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="62"/>
+      <c r="A574" s="60"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17847,7 +17844,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="62"/>
+      <c r="A576" s="60"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17855,7 +17852,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="62"/>
+      <c r="A578" s="60"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17863,7 +17860,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="62"/>
+      <c r="A580" s="60"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17871,7 +17868,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="62"/>
+      <c r="A582" s="60"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17879,7 +17876,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="62"/>
+      <c r="A584" s="60"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17887,7 +17884,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="62"/>
+      <c r="A586" s="60"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17895,7 +17892,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="62"/>
+      <c r="A588" s="60"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17903,7 +17900,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="62"/>
+      <c r="A590" s="60"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17911,7 +17908,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="62"/>
+      <c r="A592" s="60"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17919,7 +17916,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="62"/>
+      <c r="A594" s="60"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17927,7 +17924,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="62"/>
+      <c r="A596" s="60"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17935,7 +17932,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="62"/>
+      <c r="A598" s="60"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17943,7 +17940,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="62"/>
+      <c r="A600" s="60"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17951,7 +17948,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="62"/>
+      <c r="A602" s="60"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17959,7 +17956,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="62"/>
+      <c r="A604" s="60"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17967,7 +17964,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="62"/>
+      <c r="A606" s="60"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17975,7 +17972,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="62"/>
+      <c r="A608" s="60"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17983,7 +17980,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="62"/>
+      <c r="A610" s="60"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17991,7 +17988,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="62"/>
+      <c r="A612" s="60"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17999,7 +17996,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="62"/>
+      <c r="A614" s="60"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -18007,7 +18004,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="62"/>
+      <c r="A616" s="60"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -18015,421 +18012,421 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="63"/>
+      <c r="A618" s="61"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="63"/>
+      <c r="A620" s="61"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="63"/>
+      <c r="A622" s="61"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="63"/>
+      <c r="A624" s="61"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="63"/>
+      <c r="A626" s="61"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="63"/>
+      <c r="A628" s="61"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="63"/>
+      <c r="A630" s="61"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="63"/>
+      <c r="A632" s="61"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="63"/>
+      <c r="A634" s="61"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="63"/>
+      <c r="A636" s="61"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="63"/>
+      <c r="A638" s="61"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="63"/>
+      <c r="A640" s="61"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="63"/>
+      <c r="A642" s="61"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="63"/>
+      <c r="A644" s="61"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="63"/>
+      <c r="A646" s="61"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="63"/>
+      <c r="A648" s="61"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="63"/>
+      <c r="A650" s="61"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="63"/>
+      <c r="A652" s="61"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="63"/>
+      <c r="A654" s="61"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="63"/>
+      <c r="A656" s="61"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="63"/>
+      <c r="A658" s="61"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="63"/>
+      <c r="A660" s="61"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="63"/>
+      <c r="A662" s="61"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="63"/>
+      <c r="A664" s="61"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="63"/>
+      <c r="A666" s="61"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="63"/>
+      <c r="A668" s="61"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="63"/>
+      <c r="A670" s="61"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="63"/>
+      <c r="A672" s="61"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="63"/>
+      <c r="A674" s="61"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="63"/>
+      <c r="A676" s="61"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="63"/>
+      <c r="A678" s="61"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="63"/>
+      <c r="A680" s="61"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="63"/>
+      <c r="A682" s="61"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="63"/>
+      <c r="A684" s="61"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="63"/>
+      <c r="A686" s="61"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="63"/>
+      <c r="A688" s="61"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="63"/>
+      <c r="A690" s="61"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="63"/>
+      <c r="A692" s="61"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="63"/>
+      <c r="A694" s="61"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="63"/>
+      <c r="A696" s="61"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="63"/>
+      <c r="A698" s="61"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="63"/>
+      <c r="A700" s="61"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="63"/>
+      <c r="A702" s="61"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="63"/>
+      <c r="A704" s="61"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="63"/>
+      <c r="A706" s="61"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="63"/>
+      <c r="A708" s="61"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="63"/>
+      <c r="A710" s="61"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="63"/>
+      <c r="A712" s="61"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="63"/>
+      <c r="A714" s="61"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="63"/>
+      <c r="A716" s="61"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="63"/>
+      <c r="A718" s="61"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="63"/>
+      <c r="A720" s="61"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="63"/>
+      <c r="A722" s="61"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="63"/>
+      <c r="A724" s="61"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="63"/>
+      <c r="A726" s="61"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="63"/>
+      <c r="A728" s="61"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="63"/>
+      <c r="A730" s="61"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="63"/>
+      <c r="A732" s="61"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="63"/>
+      <c r="A734" s="61"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="63"/>
+      <c r="A736" s="61"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="63"/>
+      <c r="A738" s="61"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="63"/>
+      <c r="A740" s="61"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="63"/>
+      <c r="A742" s="61"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="63"/>
+      <c r="A744" s="61"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="63"/>
+      <c r="A746" s="61"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="63"/>
+      <c r="A748" s="61"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="63"/>
+      <c r="A750" s="61"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="63"/>
+      <c r="A752" s="61"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="63"/>
+      <c r="A754" s="61"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="63"/>
+      <c r="A756" s="61"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
@@ -18455,8 +18452,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -18576,9 +18573,15 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43099</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>

--- a/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1998,6 +1998,9 @@
   </si>
   <si>
     <t>捞王锅物料理(五角场万达店）开业驻店</t>
+  </si>
+  <si>
+    <t>香天下火锅石路店上线</t>
   </si>
   <si>
     <t>香天下火锅石路店开业驻店</t>
@@ -2008,11 +2011,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2091,14 +2094,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2106,9 +2101,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2122,8 +2146,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2143,43 +2176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,42 +2199,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2246,10 +2228,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2310,13 +2313,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2334,31 +2349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,7 +2373,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,43 +2415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,37 +2457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,21 +2847,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2876,8 +2864,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2893,26 +2896,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2940,16 +2923,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2958,144 +2961,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18453,7 +18456,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -18584,9 +18587,15 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>

--- a/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/52周/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -2011,11 +2011,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2094,6 +2094,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2101,8 +2106,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2116,7 +2161,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2130,19 +2183,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2163,75 +2214,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2241,14 +2234,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2313,13 +2313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,7 +2331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,13 +2355,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,13 +2439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,91 +2463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,17 +2846,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2866,6 +2866,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2885,17 +2900,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2910,27 +2921,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2949,10 +2949,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2961,144 +2961,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4236,10 +4236,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
+      <selection pane="bottomLeft" activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18455,8 +18455,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
